--- a/Plantilla Carga Masiva.xlsx
+++ b/Plantilla Carga Masiva.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>nombreUsuario</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>fechaNacimiento</t>
+  </si>
+  <si>
+    <t>rol</t>
   </si>
 </sst>
 </file>
@@ -629,6 +632,9 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/Plantilla Carga Masiva.xlsx
+++ b/Plantilla Carga Masiva.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>nombreUsuario</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>rol</t>
+  </si>
+  <si>
+    <t>curso</t>
   </si>
 </sst>
 </file>
@@ -635,6 +638,9 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
